--- a/Saved_file/EM003/2026_02/sap_data.xlsx
+++ b/Saved_file/EM003/2026_02/sap_data.xlsx
@@ -492,25 +492,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST3532</t>
+          <t>CUST4822</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27593333</v>
+        <v>15165970</v>
       </c>
       <c r="E2" t="n">
-        <v>5471922</v>
+        <v>2795136</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -524,12 +524,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST8468</t>
+          <t>CUST3097</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20505233</v>
+        <v>38265038</v>
       </c>
       <c r="E3" t="n">
-        <v>3417613</v>
+        <v>8960362</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -583,12 +583,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -605,24 +605,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST2465</t>
+          <t>CUST2757</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15634911</v>
+        <v>31363407</v>
       </c>
       <c r="E4" t="n">
-        <v>2635841</v>
+        <v>6488311</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST8621</t>
+          <t>CUST9499</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25330195</v>
+        <v>20334523</v>
       </c>
       <c r="E5" t="n">
-        <v>3923060</v>
+        <v>4154145</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST8466</t>
+          <t>CUST4211</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>34223043</v>
+        <v>29382651</v>
       </c>
       <c r="E6" t="n">
-        <v>5151058</v>
+        <v>6386982</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST9193</t>
+          <t>CUST9865</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21900085</v>
+        <v>16137884</v>
       </c>
       <c r="E7" t="n">
-        <v>4489921</v>
+        <v>3176233</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -816,25 +816,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST1306</t>
+          <t>CUST5943</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27282937</v>
+        <v>22379251</v>
       </c>
       <c r="E8" t="n">
-        <v>5674648</v>
+        <v>5236681</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -853,12 +853,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST8265</t>
+          <t>CUST2820</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22539617</v>
+        <v>34339725</v>
       </c>
       <c r="E9" t="n">
-        <v>3904561</v>
+        <v>6202831</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -924,25 +924,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST2706</t>
+          <t>CUST2078</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20303447</v>
+        <v>31987599</v>
       </c>
       <c r="E10" t="n">
-        <v>4230098</v>
+        <v>7629040</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST4568</t>
+          <t>CUST9777</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>32348391</v>
+        <v>39004134</v>
       </c>
       <c r="E11" t="n">
-        <v>5544367</v>
+        <v>7597749</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST8621</t>
+          <t>CUST9586</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>21947211</v>
+        <v>18852850</v>
       </c>
       <c r="E12" t="n">
-        <v>3967450</v>
+        <v>2986576</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST6905</t>
+          <t>CUST4335</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31916050</v>
+        <v>26412455</v>
       </c>
       <c r="E13" t="n">
-        <v>5556127</v>
+        <v>6473554</v>
       </c>
       <c r="F13" t="n">
         <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST1605</t>
+          <t>CUST7229</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22289946</v>
+        <v>28137548</v>
       </c>
       <c r="E14" t="n">
-        <v>5395498</v>
+        <v>6592633</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST5588</t>
+          <t>CUST5864</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28066066</v>
+        <v>22067422</v>
       </c>
       <c r="E15" t="n">
-        <v>6954776</v>
+        <v>4619558</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1248,25 +1248,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST5103</t>
+          <t>CUST1207</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31794160</v>
+        <v>34764924</v>
       </c>
       <c r="E16" t="n">
-        <v>4953904</v>
+        <v>6085703</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST1818</t>
+          <t>CUST9777</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30739386</v>
+        <v>26556580</v>
       </c>
       <c r="E17" t="n">
-        <v>6050947</v>
+        <v>6275509</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST5076</t>
+          <t>CUST1347</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33808994</v>
+        <v>33491628</v>
       </c>
       <c r="E18" t="n">
-        <v>6473334</v>
+        <v>7049806</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST1306</t>
+          <t>CUST1997</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20838013</v>
+        <v>34908195</v>
       </c>
       <c r="E19" t="n">
-        <v>3287485</v>
+        <v>5505387</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1469,20 +1469,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST5547</t>
+          <t>CUST3008</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>19213500</v>
+        <v>16816427</v>
       </c>
       <c r="E20" t="n">
-        <v>3761576</v>
+        <v>3525344</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST2392</t>
+          <t>CUST1997</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26895140</v>
+        <v>25306945</v>
       </c>
       <c r="E21" t="n">
-        <v>5679246</v>
+        <v>4335344</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST4905</t>
+          <t>CUST3952</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38806022</v>
+        <v>17676283</v>
       </c>
       <c r="E22" t="n">
-        <v>7775461</v>
+        <v>3954356</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST1306</t>
+          <t>CUST5943</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35495339</v>
+        <v>24706224</v>
       </c>
       <c r="E23" t="n">
-        <v>5783272</v>
+        <v>6015183</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST5445</t>
+          <t>CUST5943</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19227580</v>
+        <v>21169335</v>
       </c>
       <c r="E24" t="n">
-        <v>4289983</v>
+        <v>4066142</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1734,29 +1734,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST3593</t>
+          <t>CUST6680</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39303992</v>
+        <v>17798790</v>
       </c>
       <c r="E25" t="n">
-        <v>8630778</v>
+        <v>3511729</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST9923</t>
+          <t>CUST5873</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25777235</v>
+        <v>38639249</v>
       </c>
       <c r="E26" t="n">
-        <v>5701493</v>
+        <v>9522223</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1842,29 +1842,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST4569</t>
+          <t>CUST3008</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>24801599</v>
+        <v>19222885</v>
       </c>
       <c r="E27" t="n">
-        <v>4896944</v>
+        <v>3014505</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST4905</t>
+          <t>CUST1207</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32341796</v>
+        <v>17926919</v>
       </c>
       <c r="E28" t="n">
-        <v>7179391</v>
+        <v>4319153</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST5453</t>
+          <t>CUST9442</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31323286</v>
+        <v>23575148</v>
       </c>
       <c r="E29" t="n">
-        <v>5202646</v>
+        <v>4464865</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2004,25 +2004,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST1675</t>
+          <t>CUST4822</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30351196</v>
+        <v>38721823</v>
       </c>
       <c r="E30" t="n">
-        <v>6526568</v>
+        <v>7504075</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST1605</t>
+          <t>CUST1997</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>23902930</v>
+        <v>38797260</v>
       </c>
       <c r="E31" t="n">
-        <v>4542880</v>
+        <v>8135104</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2112,29 +2112,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST3109</t>
+          <t>CUST2649</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>17580583</v>
+        <v>20893197</v>
       </c>
       <c r="E32" t="n">
-        <v>3864311</v>
+        <v>4094356</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST5547</t>
+          <t>CUST1347</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>29727262</v>
+        <v>33313961</v>
       </c>
       <c r="E33" t="n">
-        <v>4758276</v>
+        <v>7484693</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST7772</t>
+          <t>CUST9499</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>25676225</v>
+        <v>37962646</v>
       </c>
       <c r="E34" t="n">
-        <v>5482995</v>
+        <v>7932696</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST4568</t>
+          <t>CUST5864</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23227629</v>
+        <v>27615654</v>
       </c>
       <c r="E35" t="n">
-        <v>5212636</v>
+        <v>4894160</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,25 +2328,25 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST5453</t>
+          <t>CUST4084</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>29017945</v>
+        <v>38160176</v>
       </c>
       <c r="E36" t="n">
-        <v>7234007</v>
+        <v>5900103</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,25 +2382,25 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST5103</t>
+          <t>CUST4211</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>35832447</v>
+        <v>15925931</v>
       </c>
       <c r="E37" t="n">
-        <v>7431657</v>
+        <v>2572422</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2414,12 +2414,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2436,25 +2436,25 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST1605</t>
+          <t>CUST9954</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>31625430</v>
+        <v>39466913</v>
       </c>
       <c r="E38" t="n">
-        <v>6558713</v>
+        <v>8640115</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST9193</t>
+          <t>CUST8746</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17166204</v>
+        <v>30620410</v>
       </c>
       <c r="E39" t="n">
-        <v>3256554</v>
+        <v>5713252</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2522,17 +2522,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST5547</t>
+          <t>CUST2649</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>38333594</v>
+        <v>27194105</v>
       </c>
       <c r="E40" t="n">
-        <v>7770261</v>
+        <v>5390288</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST6597</t>
+          <t>CUST3097</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>16443009</v>
+        <v>19586047</v>
       </c>
       <c r="E41" t="n">
-        <v>2912429</v>
+        <v>3366950</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST4777</t>
+          <t>CUST3097</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>16831096</v>
+        <v>26340407</v>
       </c>
       <c r="E42" t="n">
-        <v>4064688</v>
+        <v>5891242</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,17 +2684,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST1306</t>
+          <t>CUST1207</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15445449</v>
+        <v>32509791</v>
       </c>
       <c r="E43" t="n">
-        <v>3448163</v>
+        <v>7133483</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST8621</t>
+          <t>CUST2820</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>28693312</v>
+        <v>23515322</v>
       </c>
       <c r="E44" t="n">
-        <v>5724632</v>
+        <v>3702238</v>
       </c>
       <c r="F44" t="n">
         <v>2</v>
       </c>
       <c r="G44" t="n">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,17 +2792,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST6173</t>
+          <t>CUST5864</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15525803</v>
+        <v>31544939</v>
       </c>
       <c r="E45" t="n">
-        <v>3784484</v>
+        <v>6793174</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,29 +2868,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9087</t>
+          <t>CUST1093</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>22128789</v>
+        <v>31454416</v>
       </c>
       <c r="E46" t="n">
-        <v>3966626</v>
+        <v>7305290</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST6159</t>
+          <t>CUST4084</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>23561074</v>
+        <v>25277614</v>
       </c>
       <c r="E47" t="n">
-        <v>4424169</v>
+        <v>4561997</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST6905</t>
+          <t>CUST1459</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16330177</v>
+        <v>32330563</v>
       </c>
       <c r="E48" t="n">
-        <v>3371866</v>
+        <v>5423692</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,29 +3030,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-02-19</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST2102</t>
+          <t>CUST9442</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>16033306</v>
+        <v>31880516</v>
       </c>
       <c r="E49" t="n">
-        <v>2955907</v>
+        <v>5832363</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST4569</t>
+          <t>CUST2687</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>35437175</v>
+        <v>38705866</v>
       </c>
       <c r="E50" t="n">
-        <v>5522389</v>
+        <v>6143028</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST4777</t>
+          <t>CUST2078</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>31703148</v>
+        <v>35671875</v>
       </c>
       <c r="E51" t="n">
-        <v>5356469</v>
+        <v>7069188</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-17</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST3109</t>
+          <t>CUST9586</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>31129436</v>
+        <v>16789704</v>
       </c>
       <c r="E52" t="n">
-        <v>6243758</v>
+        <v>2892015</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST2882</t>
+          <t>CUST9768</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>22094329</v>
+        <v>29967732</v>
       </c>
       <c r="E53" t="n">
-        <v>4078015</v>
+        <v>5004615</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,12 +3278,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST4905</t>
+          <t>CUST9424</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16430569</v>
+        <v>17048958</v>
       </c>
       <c r="E54" t="n">
-        <v>3967360</v>
+        <v>3268586</v>
       </c>
       <c r="F54" t="n">
         <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST7922</t>
+          <t>CUST4622</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25974454</v>
+        <v>17889484</v>
       </c>
       <c r="E55" t="n">
-        <v>4140211</v>
+        <v>3227279</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,25 +3408,25 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST8468</t>
+          <t>CUST4884</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>37571573</v>
+        <v>28411714</v>
       </c>
       <c r="E56" t="n">
-        <v>6147257</v>
+        <v>6717427</v>
       </c>
       <c r="F56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST8621</t>
+          <t>CUST2687</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30333763</v>
+        <v>34274267</v>
       </c>
       <c r="E57" t="n">
-        <v>4980731</v>
+        <v>8422768</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST3482</t>
+          <t>CUST6300</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>37729944</v>
+        <v>32058729</v>
       </c>
       <c r="E58" t="n">
-        <v>5679962</v>
+        <v>7682068</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3548,12 +3548,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST9079</t>
+          <t>CUST2748</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24640759</v>
+        <v>25014471</v>
       </c>
       <c r="E59" t="n">
-        <v>5513687</v>
+        <v>3976165</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G59" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST5588</t>
+          <t>CUST1347</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30649791</v>
+        <v>37885320</v>
       </c>
       <c r="E60" t="n">
-        <v>5102653</v>
+        <v>7074920</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-02-09</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST8466</t>
+          <t>CUST1347</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>17655389</v>
+        <v>29345843</v>
       </c>
       <c r="E61" t="n">
-        <v>3211264</v>
+        <v>4544802</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,12 +3710,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3732,25 +3732,25 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST3532</t>
+          <t>CUST9993</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>34824747</v>
+        <v>16292383</v>
       </c>
       <c r="E62" t="n">
-        <v>7671315</v>
+        <v>3336828</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST1605</t>
+          <t>CUST1040</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>20911349</v>
+        <v>27293429</v>
       </c>
       <c r="E63" t="n">
-        <v>4476115</v>
+        <v>5577233</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST7053</t>
+          <t>CUST1207</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>20343568</v>
+        <v>30813011</v>
       </c>
       <c r="E64" t="n">
-        <v>4837322</v>
+        <v>4773551</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3894,25 +3894,25 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-02-18</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST5103</t>
+          <t>CUST2757</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>23016905</v>
+        <v>35000875</v>
       </c>
       <c r="E65" t="n">
-        <v>5114023</v>
+        <v>6720302</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-23</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST3532</t>
+          <t>CUST2820</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>15325389</v>
+        <v>18708228</v>
       </c>
       <c r="E66" t="n">
-        <v>2762479</v>
+        <v>3031333</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3985,12 +3985,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST8621</t>
+          <t>CUST4211</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>32546502</v>
+        <v>33353488</v>
       </c>
       <c r="E67" t="n">
-        <v>6482115</v>
+        <v>6248324</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4056,29 +4056,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST2871</t>
+          <t>CUST2078</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>15481117</v>
+        <v>16869764</v>
       </c>
       <c r="E68" t="n">
-        <v>3710661</v>
+        <v>3356431</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4088,12 +4088,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4110,25 +4110,25 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST8265</t>
+          <t>CUST4335</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>35315245</v>
+        <v>32900393</v>
       </c>
       <c r="E69" t="n">
-        <v>7482879</v>
+        <v>6540912</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST2465</t>
+          <t>CUST3097</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16034078</v>
+        <v>31818865</v>
       </c>
       <c r="E70" t="n">
-        <v>3457650</v>
+        <v>6486750</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST5495</t>
+          <t>CUST6418</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>20337942</v>
+        <v>32292781</v>
       </c>
       <c r="E71" t="n">
-        <v>4207240</v>
+        <v>5896071</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9079</t>
+          <t>CUST5873</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>21248818</v>
+        <v>31597780</v>
       </c>
       <c r="E72" t="n">
-        <v>4247448</v>
+        <v>5919106</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,17 +4304,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST3593</t>
+          <t>CUST9424</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>27356674</v>
+        <v>18279887</v>
       </c>
       <c r="E73" t="n">
-        <v>4769816</v>
+        <v>3326175</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4363,12 +4363,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4380,29 +4380,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST2871</t>
+          <t>CUST3018</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>21719008</v>
+        <v>27791372</v>
       </c>
       <c r="E74" t="n">
-        <v>4409547</v>
+        <v>4420129</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST1675</t>
+          <t>CUST8746</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>36995213</v>
+        <v>19931653</v>
       </c>
       <c r="E75" t="n">
-        <v>8072200</v>
+        <v>4538772</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4488,29 +4488,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST2102</t>
+          <t>CUST3937</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>16023340</v>
+        <v>25500858</v>
       </c>
       <c r="E76" t="n">
-        <v>3238737</v>
+        <v>6315424</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST1306</t>
+          <t>CUST9320</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>39267553</v>
+        <v>26596751</v>
       </c>
       <c r="E77" t="n">
-        <v>6725984</v>
+        <v>5540284</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST5588</t>
+          <t>CUST1565</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>28114478</v>
+        <v>17623671</v>
       </c>
       <c r="E78" t="n">
-        <v>5101564</v>
+        <v>3982829</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,17 +4628,17 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-02-17</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST1306</t>
+          <t>CUST1093</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>32584555</v>
+        <v>21782695</v>
       </c>
       <c r="E79" t="n">
-        <v>6576229</v>
+        <v>3916931</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-02-23</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST9619</t>
+          <t>CUST3008</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>29637551</v>
+        <v>33330188</v>
       </c>
       <c r="E80" t="n">
-        <v>6763175</v>
+        <v>5929341</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST3482</t>
+          <t>CUST1040</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>15033937</v>
+        <v>18458373</v>
       </c>
       <c r="E81" t="n">
-        <v>2416287</v>
+        <v>3716088</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4795,12 +4795,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,25 +4812,25 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST2706</t>
+          <t>CUST9125</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>27653434</v>
+        <v>37995739</v>
       </c>
       <c r="E82" t="n">
-        <v>6468602</v>
+        <v>9364679</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-20</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST5588</t>
+          <t>CUST3409</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>31296545</v>
+        <v>29477352</v>
       </c>
       <c r="E83" t="n">
-        <v>6622128</v>
+        <v>5878370</v>
       </c>
       <c r="F83" t="n">
         <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,12 +4898,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST6905</t>
+          <t>CUST3008</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>34607568</v>
+        <v>16770646</v>
       </c>
       <c r="E84" t="n">
-        <v>8525560</v>
+        <v>2936497</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-02-16</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST9079</t>
+          <t>CUST9125</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>28567415</v>
+        <v>15372535</v>
       </c>
       <c r="E85" t="n">
-        <v>6160683</v>
+        <v>2888386</v>
       </c>
       <c r="F85" t="n">
         <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5547</t>
+          <t>CUST9125</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>32779549</v>
+        <v>27867082</v>
       </c>
       <c r="E86" t="n">
-        <v>7824944</v>
+        <v>4526205</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST8466</t>
+          <t>CUST6680</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>20667247</v>
+        <v>15644710</v>
       </c>
       <c r="E87" t="n">
-        <v>4702140</v>
+        <v>3494392</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5136,29 +5136,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-02-20</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST3482</t>
+          <t>CUST3097</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>29742718</v>
+        <v>35606800</v>
       </c>
       <c r="E88" t="n">
-        <v>4724068</v>
+        <v>6587473</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5190,29 +5190,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST1675</t>
+          <t>CUST1207</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>31868308</v>
+        <v>32821493</v>
       </c>
       <c r="E89" t="n">
-        <v>7616749</v>
+        <v>5393462</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-19</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST8265</t>
+          <t>CUST2687</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>36655401</v>
+        <v>25925145</v>
       </c>
       <c r="E90" t="n">
-        <v>8854459</v>
+        <v>4715257</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5281,12 +5281,12 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST6597</t>
+          <t>CUST1565</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>25496110</v>
+        <v>32766801</v>
       </c>
       <c r="E91" t="n">
-        <v>4006773</v>
+        <v>7162032</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5335,12 +5335,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5532697</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>747193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.2</v>
+        <v>81.2</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>9469608</v>
+        <v>13474410</v>
       </c>
       <c r="E3" t="n">
-        <v>1854690</v>
+        <v>3756775</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>13639787</v>
+        <v>9936307</v>
       </c>
       <c r="E4" t="n">
-        <v>3885308</v>
+        <v>1145658</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>17544916</v>
+        <v>5799244</v>
       </c>
       <c r="E5" t="n">
-        <v>2500156</v>
+        <v>1264370</v>
       </c>
     </row>
     <row r="6">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88.3</v>
+        <v>85.3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>5807298</v>
+        <v>14963319</v>
       </c>
       <c r="E6" t="n">
-        <v>1129606</v>
+        <v>3735117</v>
       </c>
     </row>
     <row r="7">
@@ -5495,13 +5495,13 @@
         <v>75.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>13797295</v>
+        <v>6569451</v>
       </c>
       <c r="E7" t="n">
-        <v>3322417</v>
+        <v>1560932</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>5464785</v>
+        <v>4148983</v>
       </c>
       <c r="E8" t="n">
-        <v>1611018</v>
+        <v>825364</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65</v>
+        <v>66.7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1148002</v>
+        <v>2456278</v>
       </c>
       <c r="E9" t="n">
-        <v>306329</v>
+        <v>623942</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>11510269</v>
+        <v>15751135</v>
       </c>
       <c r="E10" t="n">
-        <v>3231580</v>
+        <v>2555027</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.5</v>
+        <v>82.3</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>9226006</v>
+        <v>7648130</v>
       </c>
       <c r="E11" t="n">
-        <v>1964138</v>
+        <v>1691828</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>9735154</v>
+        <v>13309104</v>
       </c>
       <c r="E12" t="n">
-        <v>1037660</v>
+        <v>2354777</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.2</v>
+        <v>82.7</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>15486949</v>
+        <v>9701982</v>
       </c>
       <c r="E13" t="n">
-        <v>2596696</v>
+        <v>1717133</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.5</v>
+        <v>87.7</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>3698616</v>
+        <v>10786228</v>
       </c>
       <c r="E14" t="n">
-        <v>841704</v>
+        <v>1496744</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4423315</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>691724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1081854</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>176368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>11534519</v>
+        <v>3403614</v>
       </c>
       <c r="E17" t="n">
-        <v>1752543</v>
+        <v>615140</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>88.90000000000001</v>
+        <v>89</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>10992879</v>
+        <v>6844830</v>
       </c>
       <c r="E18" t="n">
-        <v>1281276</v>
+        <v>1142744</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.3</v>
+        <v>82.3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>4923821</v>
+        <v>5530383</v>
       </c>
       <c r="E19" t="n">
-        <v>1003306</v>
+        <v>916904</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>8344063</v>
+        <v>9625694</v>
       </c>
       <c r="E20" t="n">
-        <v>2231783</v>
+        <v>1258906</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4187083</v>
+        <v>3180777</v>
       </c>
       <c r="E21" t="n">
-        <v>901267</v>
+        <v>623821</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>73.8</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3182242</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>513231</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6613686</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1974685</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>79.09999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>4953764</v>
+        <v>16104506</v>
       </c>
       <c r="E24" t="n">
-        <v>1185878</v>
+        <v>2546889</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82</v>
+        <v>84.8</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>11602587</v>
+        <v>4732437</v>
       </c>
       <c r="E25" t="n">
-        <v>2699198</v>
+        <v>1210190</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>9481458</v>
+        <v>8134582</v>
       </c>
       <c r="E26" t="n">
-        <v>1745691</v>
+        <v>1678370</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.7</v>
+        <v>83.2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6826934</v>
+        <v>8900602</v>
       </c>
       <c r="E27" t="n">
-        <v>1979445</v>
+        <v>1290352</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>6401760</v>
+        <v>2167591</v>
       </c>
       <c r="E28" t="n">
-        <v>1379002</v>
+        <v>439837</v>
       </c>
     </row>
     <row r="29">
